--- a/Strategy.xlsx
+++ b/Strategy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Earl\Desktop\Meme\BJ Surrender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Earl\Desktop\Meme\BJ Surrender\dist\BlackjackGUI\_internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112D4AA-6BBF-4F4B-8262-DA79CA666739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E710021-BE46-4F2B-AFC2-70CD5C0A5182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4C48787C-5352-4B0F-A4CB-BFE2BDD1F57D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4C48787C-5352-4B0F-A4CB-BFE2BDD1F57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Split" sheetId="3" r:id="rId1"/>
@@ -157,7 +157,213 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,7 +696,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B5" sqref="B5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +1090,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K11">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -892,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51F996-9D13-40E8-AA77-C628C0E05F58}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,6 +1743,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K18">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1538,7 +1760,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,6 +2084,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K9">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Ds"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1870,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F488A8-4686-4C04-858F-6A9C1741CDB6}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,6 +2743,17 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K18">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2515,9 +2762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89FBEA8-4CF1-4BAD-A55B-9EA4608B6FD4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Strategy.xlsx
+++ b/Strategy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Earl\Desktop\Meme\BJ Surrender\dist\BlackjackGUI\_internal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Earl\Desktop\Meme\BJ Surrender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E710021-BE46-4F2B-AFC2-70CD5C0A5182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9A6B0-B694-4AB3-90C1-DFD2CE94A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4C48787C-5352-4B0F-A4CB-BFE2BDD1F57D}"/>
+    <workbookView xWindow="26100" yWindow="600" windowWidth="20550" windowHeight="11250" xr2:uid="{4C48787C-5352-4B0F-A4CB-BFE2BDD1F57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Split" sheetId="3" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Hand</t>
   </si>
   <si>
-    <t>https://www.blackjackapprenticeship.com/blackjack-strategy-charts/</t>
-  </si>
-  <si>
     <t>2_12</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>3_13</t>
+  </si>
+  <si>
+    <t>https://www.blackjackapprenticeship.com/wp-content/uploads/2024/09/S17-Basic-Strategy.pdf</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -182,33 +182,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -260,40 +233,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -320,46 +259,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -695,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDD4385-FE88-469F-993C-693CF0878F52}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,12 +635,12 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1091,11 +990,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K11">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1744,11 +1643,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K18">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,7 +1659,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,12 +1699,12 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1840,7 +1739,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1855,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1875,10 +1774,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1910,7 +1809,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1945,7 +1844,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1980,7 +1879,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2015,7 +1914,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2050,7 +1949,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2085,17 +1984,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K9">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"S"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"Ds"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F488A8-4686-4C04-858F-6A9C1741CDB6}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2494,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2744,14 +2643,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K18">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"S"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"D"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"D"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,13 +2661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89FBEA8-4CF1-4BAD-A55B-9EA4608B6FD4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
